--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_14_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77212.20267814396</v>
+        <v>5151068.340509108</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77212.20267814396</v>
+        <v>5151068.340509108</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189161312.351671</v>
+        <v>44437205.89499237</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13035.87437226584</v>
+        <v>1108088.185969059</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24696.37070866723</v>
+        <v>1978347.776117882</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36352.22687846513</v>
+        <v>2848607.366266705</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48247.98562419954</v>
+        <v>3717994.711088549</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60143.74436993394</v>
+        <v>4587382.055910392</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72039.49945727436</v>
+        <v>5456769.400732235</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83935.23613404506</v>
+        <v>6326156.745554073</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95830.99487977948</v>
+        <v>7195544.090375911</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107726.7536255139</v>
+        <v>8064931.43519775</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119622.5123712483</v>
+        <v>8934318.780019589</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131518.2711169828</v>
+        <v>9803706.124841427</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>143414.0262043232</v>
+        <v>10673093.46966327</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>155309.7849500576</v>
+        <v>11542480.81448512</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>167205.543695792</v>
+        <v>12411868.15930697</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>179101.3024415266</v>
+        <v>13281255.50412882</v>
       </c>
     </row>
   </sheetData>
